--- a/data/RSA/1.xlsx
+++ b/data/RSA/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF2C55-D3DB-4BDA-9043-BD44E9603A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6878DE3-8CF5-4AF2-B2D3-F155C72127D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>Registration Number</t>
-  </si>
-  <si>
-    <t>18MIS0411</t>
-  </si>
-  <si>
-    <t>18MIS7085</t>
-  </si>
-  <si>
-    <t>18MIS0356</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SOLOMON REX S S .</t>
   </si>
@@ -58,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,20 +55,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,60 +74,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,18 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,59 +383,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
